--- a/Бакалавриат.xlsx
+++ b/Бакалавриат.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Ср. балл</t>
+          <t xml:space="preserve">Ср.балл </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -585,34 +585,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>75.5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -630,34 +624,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78.2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -675,34 +663,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>85.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -720,31 +702,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>71.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -765,31 +741,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>71.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74.3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -810,28 +783,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>73.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -852,16 +822,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>68.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -870,7 +840,7 @@
         <v>62.7</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -897,25 +867,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>56.5</v>
+        <v>71.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -924,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -942,28 +909,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>61.7</v>
+        <v>83</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>48</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -984,25 +954,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>61</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v>51.7</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1026,31 +999,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>69.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1071,25 +1041,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>62.3</v>
+        <v>69</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>65.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1116,25 +1083,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
       <c r="I16" t="n">
-        <v>71.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1143,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1161,19 +1128,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50.3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1200,34 +1173,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>71.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>70.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1245,34 +1218,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>60.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>61.4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1290,25 +1260,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+      <c r="I20" t="n">
+        <v>77.3</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1332,31 +1305,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>65.59999999999999</v>
+        <v>51.7</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>51.7</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1374,25 +1350,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
       </c>
       <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>68</v>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
-        <v>63</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
       <c r="I22" t="n">
-        <v>62.7</v>
+        <v>48</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1401,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1419,19 +1395,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>76</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>72.40000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1458,19 +1440,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>74.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>66.90000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1500,13 +1488,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>64.40000000000001</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1539,13 +1530,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>70.2</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1578,13 +1572,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>82.3</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1614,10 +1611,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1743,7 +1740,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Ср. балл</t>
+          <t xml:space="preserve">Ср.балл </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -1782,34 +1779,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>77.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>80.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1827,34 +1818,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1872,34 +1857,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
-      </c>
-      <c r="G6" t="n">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1917,34 +1896,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>72.7</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1962,28 +1935,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>71.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>68.7</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2007,28 +1974,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>69.7</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2052,22 +2013,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>58.3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>57.7</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2079,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2097,31 +2052,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>69.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2139,22 +2091,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -2181,22 +2130,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>68.7</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -2205,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2223,16 +2169,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>67.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2241,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2265,22 +2208,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>65.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>60.7</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2289,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2310,22 +2247,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>81.2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>79.8</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2334,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2394,34 +2325,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
-      </c>
-      <c r="G18" t="n">
-        <v>70.3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>74.7</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2439,31 +2364,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2481,34 +2403,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>61.3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2526,22 +2442,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>67.7</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2550,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2571,34 +2481,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>64.3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2619,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2658,13 +2562,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>51</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2697,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2736,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2940,7 +2847,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Ср. балл</t>
+          <t xml:space="preserve">Ср.балл </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -2980,34 +2887,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>75.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>76.7</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3025,34 +2926,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>79.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>81.2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3070,34 +2965,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3115,34 +3004,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>70.8</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>64.3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3160,22 +3043,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>63.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -3184,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3202,28 +3082,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>76.3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3244,31 +3121,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70.3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -3289,16 +3160,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -3310,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -3331,10 +3199,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -3370,34 +3238,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>68.2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3415,34 +3277,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>67.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>69.7</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3460,34 +3316,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3505,31 +3355,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>81.8</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>87.7</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -3553,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3589,34 +3433,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3634,22 +3472,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>65.3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -3676,16 +3511,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -3700,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3718,34 +3550,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>54.8</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>63.7</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3763,22 +3589,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>75.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62.3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3787,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3967,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
